--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2895296.966638926</v>
+        <v>2892798.715317716</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>311.7236160152329</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.531443242493651</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,10 +1430,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444508</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>10.92960745128311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1658,10 +1658,10 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,22 +1844,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E17" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>266.5261556680082</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673176</v>
+        <v>270.5718355797518</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011846</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204002</v>
+        <v>14.78497770203991</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580147</v>
+        <v>85.42919609580137</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249201</v>
+        <v>72.84403701249191</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207653</v>
+        <v>54.21268893207643</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043335</v>
+        <v>52.03117856043325</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679542</v>
+        <v>51.01826393679532</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728924</v>
+        <v>71.6230241728923</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818496</v>
+        <v>50.35223082818486</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702286</v>
+        <v>1.949636323702173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530607</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376922</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504552</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E20" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011846</v>
+        <v>154.2578743136195</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204001</v>
+        <v>14.78497770203988</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V20" t="n">
-        <v>187.4023683964314</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y20" t="n">
         <v>291.8351545699177</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851181</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580137</v>
       </c>
       <c r="C22" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249191</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207643</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043333</v>
+        <v>52.03117856043325</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679532</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289239</v>
+        <v>71.6230241728923</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818494</v>
+        <v>50.35223082818486</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702272</v>
+        <v>1.949636323702158</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T22" t="n">
         <v>125.1461651900333</v>
       </c>
       <c r="U22" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V22" t="n">
         <v>157.7348592376921</v>
@@ -2302,10 +2302,10 @@
         <v>192.1202142504551</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848717</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E23" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011846</v>
+        <v>154.2578743136172</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204</v>
+        <v>14.78497770203992</v>
       </c>
       <c r="T23" t="n">
-        <v>63.56808006591465</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839991</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312772</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y23" t="n">
         <v>291.8351545699177</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580146</v>
+        <v>85.42919609580137</v>
       </c>
       <c r="C25" t="n">
-        <v>72.844037012492</v>
+        <v>72.84403701249191</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207652</v>
+        <v>54.21268893207643</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043333</v>
+        <v>52.03117856043325</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679541</v>
+        <v>51.01826393679532</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289239</v>
+        <v>71.6230241728923</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818494</v>
+        <v>50.35223082818486</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702258</v>
+        <v>1.949636323702187</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530604</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T25" t="n">
         <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V25" t="n">
         <v>157.7348592376921</v>
@@ -2539,10 +2539,10 @@
         <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959373</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034642</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047185</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741682</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>125.3256134505318</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.76011432063247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498698</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109258</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>217.6975836563605</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506691</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902593</v>
+        <v>99.0063151790258</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538801</v>
+        <v>97.99340055538788</v>
       </c>
       <c r="G28" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677754</v>
+        <v>97.32736744677742</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229487</v>
+        <v>48.92477294229474</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250411</v>
+        <v>41.50450520250399</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X28" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959373</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034643</v>
+        <v>317.8452443034641</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>307.2553941531395</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047185</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741682</v>
+        <v>359.448398274168</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859102</v>
+        <v>241.5778990625421</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063258</v>
+        <v>61.76011432063241</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720769</v>
+        <v>156.4903226720767</v>
       </c>
       <c r="U29" t="n">
-        <v>109.0372212465034</v>
+        <v>203.5675244913585</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025915</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>301.8133212498696</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109258</v>
+        <v>322.3034532109256</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885103</v>
+        <v>338.8102911885102</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.404332714394</v>
+        <v>132.4043327143939</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310844</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506691</v>
+        <v>101.1878255506689</v>
       </c>
       <c r="E31" t="n">
-        <v>99.0063151790259</v>
+        <v>99.00631517902575</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538798</v>
+        <v>97.99340055538782</v>
       </c>
       <c r="G31" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914848</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677752</v>
+        <v>97.32736744677736</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229484</v>
+        <v>48.92477294229469</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250408</v>
+        <v>41.50450520250394</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638986</v>
+        <v>142.3413778638985</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086259</v>
+        <v>172.1213018086258</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380696</v>
+        <v>238.7841907380694</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562847</v>
+        <v>204.7099958562846</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690477</v>
+        <v>239.0953508690476</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214939</v>
+        <v>178.2820079214937</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845515</v>
+        <v>171.1570058845514</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D32" t="n">
         <v>256.998321392578</v>
@@ -3044,7 +3044,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U32" t="n">
         <v>153.310451730797</v>
@@ -3095,7 +3095,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G34" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621576</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T34" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V34" t="n">
         <v>154.452923095723</v>
@@ -3250,7 +3250,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y34" t="n">
         <v>120.8999331239898</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621577</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621577</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
@@ -3743,7 +3743,7 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925767</v>
       </c>
       <c r="E41" t="n">
         <v>284.2456498441568</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621577</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621577</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1358.621238582485</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.621238582485</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923808</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822737</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3320.018505202611</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3161.490390534907</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2955.409546756816</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2671.796292361319</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2366.477270039278</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2040.461144726272</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1697.771445698533</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315259</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328089</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
         <v>1896.109063016758</v>
@@ -5224,25 +5224,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1665.976477910008</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.46359391767</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1033.647528258993</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>695.3089086088218</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.76478608434</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2979.151531688843</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2673.832509366802</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2347.816384053795</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2005.126685026057</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5428,19 +5428,19 @@
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1684.621236373654</v>
+        <v>1684.621236373655</v>
       </c>
       <c r="C17" t="n">
-        <v>1411.015066994995</v>
+        <v>1411.015066994997</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.105715949998</v>
+        <v>1148.10571595</v>
       </c>
       <c r="E17" t="n">
-        <v>857.6738109135073</v>
+        <v>857.6738109135094</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549131</v>
+        <v>542.0442536856553</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616629</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698021</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643996</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.169431697768</v>
+        <v>2806.169431697769</v>
       </c>
       <c r="W17" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989408</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.64771329008</v>
+        <v>2270.647713290082</v>
       </c>
       <c r="Y17" t="n">
-        <v>1975.864728876022</v>
+        <v>1975.864728876023</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095339</v>
+        <v>424.1192475095332</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433803</v>
+        <v>350.5394121433798</v>
       </c>
       <c r="D19" t="n">
-        <v>295.779120292798</v>
+        <v>295.7791202927975</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360012</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724736</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208472</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148973</v>
+        <v>129.6354881860069</v>
       </c>
       <c r="K19" t="n">
-        <v>363.5632367278421</v>
+        <v>321.4050986989519</v>
       </c>
       <c r="L19" t="n">
-        <v>612.7318368954737</v>
+        <v>570.5736988665836</v>
       </c>
       <c r="M19" t="n">
-        <v>780.1643181946715</v>
+        <v>738.0061801657814</v>
       </c>
       <c r="N19" t="n">
-        <v>1044.931911469793</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O19" t="n">
-        <v>1276.309016933258</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P19" t="n">
-        <v>1431.976563004331</v>
+        <v>1426.560637902401</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608146</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712683</v>
+        <v>962.5416221712671</v>
       </c>
       <c r="W19" t="n">
-        <v>768.480799696061</v>
+        <v>768.48079969606</v>
       </c>
       <c r="X19" t="n">
-        <v>635.847596359797</v>
+        <v>635.8475963597961</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780202</v>
+        <v>510.4113647780194</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373656</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994998</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715950001</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827672</v>
+        <v>857.6738109135099</v>
       </c>
       <c r="F20" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856558</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924052</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698021</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.050100643994</v>
+        <v>3200.050100643997</v>
       </c>
       <c r="U20" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479586</v>
       </c>
       <c r="V20" t="n">
-        <v>2852.580649867027</v>
+        <v>2806.169431697769</v>
       </c>
       <c r="W20" t="n">
-        <v>2595.168342158666</v>
+        <v>2548.757123989409</v>
       </c>
       <c r="X20" t="n">
-        <v>2317.05893145934</v>
+        <v>2270.647713290082</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.275947045282</v>
+        <v>1975.864728876024</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095332</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433802</v>
+        <v>350.5394121433798</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927975</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360012</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208471</v>
+        <v>68.48144605208462</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148973</v>
+        <v>171.7936262148975</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278421</v>
+        <v>363.5632367278425</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954737</v>
+        <v>612.7318368954744</v>
       </c>
       <c r="M22" t="n">
-        <v>873.623074439946</v>
+        <v>873.6230744399468</v>
       </c>
       <c r="N22" t="n">
-        <v>1138.390667715068</v>
+        <v>1138.390667715069</v>
       </c>
       <c r="O22" t="n">
-        <v>1276.309016933258</v>
+        <v>1327.609635149642</v>
       </c>
       <c r="P22" t="n">
-        <v>1431.97656300433</v>
+        <v>1520.019394147675</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608145</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V22" t="n">
-        <v>962.541622171268</v>
+        <v>962.5416221712671</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960608</v>
+        <v>768.48079969606</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597961</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780194</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542914</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164256</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119259</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827682</v>
+        <v>857.6738109135065</v>
       </c>
       <c r="F23" t="n">
-        <v>588.455471854914</v>
+        <v>542.0442536856524</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924028</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218195</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810539</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.55555606017</v>
@@ -6017,22 +6017,22 @@
         <v>3310.671500698018</v>
       </c>
       <c r="T23" t="n">
-        <v>3246.461318813256</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3088.287189648846</v>
+        <v>3041.875971479583</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867029</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158668</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459341</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045283</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095337</v>
+        <v>424.1192475095331</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433802</v>
+        <v>350.5394121433796</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927979</v>
+        <v>295.7791202927974</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721578</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360009</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724733</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208466</v>
+        <v>68.48144605208459</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962284</v>
+        <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>270.1044804825677</v>
+        <v>363.5632367278423</v>
       </c>
       <c r="L25" t="n">
-        <v>519.2730806501994</v>
+        <v>612.7318368954741</v>
       </c>
       <c r="M25" t="n">
-        <v>780.1643181946718</v>
+        <v>873.6230744399463</v>
       </c>
       <c r="N25" t="n">
-        <v>1044.931911469794</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O25" t="n">
         <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.718775931291</v>
+        <v>1431.976563004329</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608145</v>
+        <v>1538.356086608144</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996725</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171268</v>
+        <v>962.541622171267</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960608</v>
+        <v>768.4807996960599</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597969</v>
+        <v>635.8475963597959</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780201</v>
+        <v>510.4113647780193</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1525.479159650388</v>
+        <v>1766.053366453801</v>
       </c>
       <c r="C26" t="n">
-        <v>1204.423357323656</v>
+        <v>1444.997564127069</v>
       </c>
       <c r="D26" t="n">
-        <v>894.064373330586</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>556.1828353460219</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>193.1036451700944</v>
+        <v>433.6778519735067</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218339</v>
@@ -6221,13 +6221,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6242,7 +6242,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052367</v>
@@ -6251,25 +6251,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3263.221867749945</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.150834747847</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.982059496686</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V26" t="n">
-        <v>2836.825886766795</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W26" t="n">
-        <v>2531.963946110361</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X26" t="n">
-        <v>2206.404902462961</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>1864.17228510083</v>
+        <v>1766.053366453801</v>
       </c>
     </row>
     <row r="27">
@@ -6285,16 +6285,16 @@
         <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460472</v>
+        <v>756.2666781460462</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318203</v>
+        <v>635.2372098318194</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331646</v>
+        <v>533.0272850331639</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644515</v>
+        <v>433.020906064451</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802212</v>
+        <v>334.0376731802208</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686202</v>
+        <v>214.2415511686199</v>
       </c>
       <c r="H28" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719867</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137308</v>
+        <v>398.6314812403311</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506816951</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274114</v>
+        <v>1153.255067274112</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972847</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886128</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312655</v>
+        <v>2167.460656312653</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829246</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269752</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.26535819228</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626069</v>
+        <v>890.0084283626057</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1705.371268238283</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C29" t="n">
-        <v>1384.315465911551</v>
+        <v>983.9683704623351</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911551</v>
+        <v>673.6093864692648</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692648</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510594</v>
+        <v>310.5301962933374</v>
       </c>
       <c r="G29" t="n">
-        <v>316.1890022097362</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218339</v>
@@ -6461,10 +6461,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,7 +6473,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
@@ -6482,7 +6482,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6494,19 +6494,19 @@
         <v>3105.150834747847</v>
       </c>
       <c r="U29" t="n">
-        <v>2995.012227428147</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>2711.856054698257</v>
+        <v>2616.370899905473</v>
       </c>
       <c r="W29" t="n">
-        <v>2711.856054698257</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>2386.297011050857</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2044.064393688725</v>
+        <v>1643.717298239508</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218339</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460468</v>
+        <v>756.2666781460458</v>
       </c>
       <c r="C31" t="n">
-        <v>635.23720983182</v>
+        <v>635.2372098318191</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331644</v>
+        <v>533.0272850331636</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644514</v>
+        <v>433.0209060644507</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802211</v>
+        <v>334.0376731802206</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686201</v>
+        <v>214.2415511686198</v>
       </c>
       <c r="H31" t="n">
-        <v>115.931079000158</v>
+        <v>115.9310790001578</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719867</v>
+        <v>147.6909272985854</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137309</v>
+        <v>398.6314812403297</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550948</v>
+        <v>762.1446506816937</v>
       </c>
       <c r="M31" t="n">
-        <v>1153.255067274114</v>
+        <v>1153.255067274111</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972846</v>
+        <v>1541.616814972843</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886127</v>
+        <v>1887.899784886125</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312654</v>
+        <v>2167.460656312652</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458037</v>
+        <v>2292.024323458034</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829245</v>
+        <v>2250.100580829243</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269749</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.461510452956</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192281</v>
+        <v>1691.265358192279</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600073</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176794</v>
+        <v>1242.977129176792</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892455</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626065</v>
+        <v>890.0084283626053</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218372</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6710,22 +6710,22 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T32" t="n">
         <v>3206.680274668174</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6789,40 +6789,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J34" t="n">
-        <v>155.2189959588246</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K34" t="n">
-        <v>253.5298502264949</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L34" t="n">
-        <v>409.2396941488521</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M34" t="n">
-        <v>673.3800484738738</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N34" t="n">
-        <v>941.3967585295452</v>
+        <v>962.5394823862516</v>
       </c>
       <c r="O34" t="n">
-        <v>1176.022980773559</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1371.681856552141</v>
+        <v>1392.824580408848</v>
       </c>
       <c r="Q34" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S34" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218372</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6953,34 +6953,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D37" t="n">
         <v>280.5494426245364</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919198</v>
@@ -7087,37 +7087,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>253.5298502264953</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854743</v>
+        <v>409.2396941488525</v>
       </c>
       <c r="M37" t="n">
-        <v>682.045090356351</v>
+        <v>673.3800484738742</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120224</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219653</v>
@@ -7126,19 +7126,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X37" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,31 +7157,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218417</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,16 +7190,16 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
@@ -7211,13 +7211,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D40" t="n">
         <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919198</v>
@@ -7324,37 +7324,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8840378413017</v>
+        <v>155.218995958825</v>
       </c>
       <c r="K40" t="n">
-        <v>262.194892108972</v>
+        <v>350.2377232523193</v>
       </c>
       <c r="L40" t="n">
-        <v>514.6126090571531</v>
+        <v>602.6554402005004</v>
       </c>
       <c r="M40" t="n">
-        <v>778.7529633821748</v>
+        <v>770.0879214996982</v>
       </c>
       <c r="N40" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295457</v>
       </c>
       <c r="O40" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
@@ -7363,19 +7363,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X40" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170922</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D43" t="n">
         <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919198</v>
@@ -7561,37 +7561,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0614702889411</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
-        <v>622.4791872371222</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>886.6195415621439</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.928378591991</v>
+        <v>961.2205055661674</v>
       </c>
       <c r="O43" t="n">
-        <v>1292.554600836005</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219653</v>
@@ -7600,19 +7600,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X43" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734885</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307324</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,10 +7725,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919198</v>
@@ -7801,34 +7801,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970705</v>
       </c>
       <c r="K46" t="n">
-        <v>273.3535972631171</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7713142112983</v>
+        <v>527.0902910313824</v>
       </c>
       <c r="M46" t="n">
-        <v>789.91166853632</v>
+        <v>694.5227723305802</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.928378591992</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.39589568186</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P46" t="n">
         <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219653</v>
@@ -7837,19 +7837,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X46" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899593</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.502395683792</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706521</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10276,7 +10276,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>167.5023956837915</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
         <v>171.8177168444618</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.6811819270896</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796419</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>348.9713016718358</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>45.94710598756734</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.94710598756571</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>45.94710598756507</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>45.94710598756764</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756731</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.94710598756966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>238.1684647353784</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063261</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720769</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321498</v>
       </c>
     </row>
     <row r="27">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531397</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.916179123368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>94.53030324485528</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498698</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694776.7231935223</v>
+        <v>694776.7231935225</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694776.7231935223</v>
+        <v>694776.7231935225</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694776.7231935222</v>
+        <v>694776.7231935223</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>664156.8057180957</v>
+        <v>664156.8057180956</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664156.8057180956</v>
+        <v>664156.8057180959</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="D2" t="n">
-        <v>737351.8985513598</v>
+        <v>737351.89855136</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008585</v>
+        <v>688077.9089008588</v>
       </c>
       <c r="F2" t="n">
         <v>688077.9089008588</v>
@@ -26329,31 +26329,31 @@
         <v>735645.9422049054</v>
       </c>
       <c r="H2" t="n">
-        <v>735645.9422049054</v>
+        <v>735645.9422049053</v>
       </c>
       <c r="I2" t="n">
         <v>735645.9422049053</v>
       </c>
       <c r="J2" t="n">
-        <v>688531.7591819214</v>
+        <v>688531.7591819213</v>
       </c>
       <c r="K2" t="n">
-        <v>688531.7591819213</v>
+        <v>688531.759181921</v>
       </c>
       <c r="L2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="O2" t="n">
+        <v>738937.5928778542</v>
+      </c>
+      <c r="P2" t="n">
         <v>738937.5928778546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>738937.5928778545</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971249936</v>
+        <v>9496.99497125052</v>
       </c>
       <c r="E3" t="n">
         <v>1152439.021265976</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403461</v>
+        <v>37942.11797403469</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.77618248393</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586372</v>
+        <v>463750.8212586371</v>
       </c>
       <c r="E4" t="n">
-        <v>61875.22120367244</v>
+        <v>61875.22120367238</v>
       </c>
       <c r="F4" t="n">
-        <v>61875.22120367241</v>
+        <v>61875.22120367239</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662282</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662283</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662276</v>
+        <v>91701.70120662289</v>
       </c>
       <c r="J4" t="n">
-        <v>62159.64863317453</v>
+        <v>62159.64863317462</v>
       </c>
       <c r="K4" t="n">
-        <v>62159.64863317455</v>
+        <v>62159.64863317464</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.137826577</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657703</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.137826577</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328351</v>
+        <v>33869.34580328353</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673068</v>
       </c>
       <c r="H5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673069</v>
       </c>
       <c r="I5" t="n">
         <v>82242.68821673063</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="K5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="L5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624982</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236105.1449136034</v>
+        <v>236100.7313357352</v>
       </c>
       <c r="C6" t="n">
-        <v>236105.1449136033</v>
+        <v>236100.7313357351</v>
       </c>
       <c r="D6" t="n">
-        <v>230234.7365181891</v>
+        <v>230230.3318117264</v>
       </c>
       <c r="E6" t="n">
-        <v>-604491.8268905721</v>
+        <v>-604633.1037905073</v>
       </c>
       <c r="F6" t="n">
-        <v>547947.1943754046</v>
+        <v>547805.9174754686</v>
       </c>
       <c r="G6" t="n">
-        <v>523759.4348075174</v>
+        <v>523750.2913334256</v>
       </c>
       <c r="H6" t="n">
-        <v>561701.552781552</v>
+        <v>561692.4093074601</v>
       </c>
       <c r="I6" t="n">
-        <v>561701.552781552</v>
+        <v>561692.4093074608</v>
       </c>
       <c r="J6" t="n">
-        <v>548078.5750924047</v>
+        <v>547938.5588876936</v>
       </c>
       <c r="K6" t="n">
-        <v>548078.5750924045</v>
+        <v>547938.5588876933</v>
       </c>
       <c r="L6" t="n">
-        <v>484497.0815625436</v>
+        <v>484497.0815625437</v>
       </c>
       <c r="M6" t="n">
         <v>355456.2894529548</v>
       </c>
       <c r="N6" t="n">
-        <v>562644.8577450278</v>
+        <v>562644.8577450279</v>
       </c>
       <c r="O6" t="n">
+        <v>562644.8577450274</v>
+      </c>
+      <c r="P6" t="n">
         <v>562644.8577450276</v>
-      </c>
-      <c r="P6" t="n">
-        <v>562644.8577450275</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135392</v>
+        <v>11.0892570313546</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
@@ -26817,16 +26817,16 @@
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754326</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135392</v>
+        <v>11.0892570313546</v>
       </c>
       <c r="E3" t="n">
         <v>1078.687443561944</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754326</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052752</v>
+        <v>208.7572219052751</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826064</v>
+        <v>177.2622388826061</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586405</v>
+        <v>214.4191170586402</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193324</v>
+        <v>228.731368019332</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862407</v>
+        <v>222.5183879862402</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357987</v>
+        <v>221.4585556357982</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176002</v>
+        <v>222.5869951175997</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178626</v>
+        <v>224.8223464178622</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000993</v>
+        <v>217.4915592000989</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267119</v>
+        <v>212.7851939267117</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823178</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27950,31 +27950,31 @@
         <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588558</v>
+        <v>98.70114728588553</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297573</v>
+        <v>124.5841013297572</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373462</v>
+        <v>133.989805237346</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993348</v>
+        <v>133.3753828993345</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399304</v>
+        <v>136.0903888399301</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993498</v>
+        <v>125.1381096993494</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352005</v>
+        <v>136.9211602352002</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121502</v>
+        <v>129.4196520121499</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214883</v>
+        <v>136.9370407214881</v>
       </c>
       <c r="R9" t="n">
         <v>144.1985650721163</v>
@@ -28026,37 +28026,37 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
         <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634479</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269173</v>
+        <v>126.6899679269171</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502422</v>
+        <v>131.911664650242</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297094</v>
+        <v>135.7911600297092</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978761</v>
+        <v>124.6254548978759</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465397</v>
+        <v>135.6300504465395</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697192</v>
+        <v>135.3094552697191</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177114</v>
+        <v>149.8305238177113</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021355</v>
+        <v>176.3942526021354</v>
       </c>
       <c r="S10" t="n">
         <v>223.6681045004295</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613582</v>
+        <v>51.81880627917576</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="P19" t="n">
-        <v>57.28943769526714</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>51.81880627917513</v>
       </c>
       <c r="P22" t="n">
-        <v>57.28943769526646</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I23" t="n">
-        <v>41.5769297729245</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613584</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613584</v>
+        <v>57.28943769526484</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.2894376952661</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613584</v>
+        <v>94.40278408613592</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29369,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754324</v>
+        <v>47.42764746754337</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I30" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754327</v>
+        <v>47.42764746754342</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J34" t="n">
-        <v>77.660733322426</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.68472022810502</v>
+        <v>76.32843350415952</v>
       </c>
       <c r="R34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30168,49 +30168,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.66073332242644</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>86.4133008804838</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>86.41330088048366</v>
+        <v>77.66073332242645</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P43" t="n">
-        <v>86.41330088048375</v>
+        <v>77.66073332242664</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810501</v>
+        <v>85.08100106221713</v>
       </c>
       <c r="O46" t="n">
-        <v>86.41330088048375</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423683</v>
+        <v>0.04457992776423957</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154906</v>
+        <v>0.4565541852155187</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130742</v>
+        <v>1.718667665130848</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079899</v>
+        <v>3.783665644080132</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986340045</v>
+        <v>5.670733986340394</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950654809</v>
+        <v>7.035046950655243</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241032056</v>
+        <v>7.827845241032538</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960792195</v>
+        <v>7.954507960792684</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304086564</v>
+        <v>7.511216304087027</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406967</v>
+        <v>6.410649337407361</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350234</v>
+        <v>4.81413067435053</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420244</v>
+        <v>2.800343887420417</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927548</v>
+        <v>1.01586510392761</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879468</v>
+        <v>0.1951486337879588</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138946</v>
+        <v>0.003566394221139165</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064806</v>
+        <v>0.02385236418064952</v>
       </c>
       <c r="H9" t="n">
-        <v>0.230363622481522</v>
+        <v>0.2303636224815362</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141144178</v>
+        <v>0.8212327141144683</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909385</v>
+        <v>2.253525336909524</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012805</v>
+        <v>3.851633737013042</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539395</v>
+        <v>5.178996880539714</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087886</v>
+        <v>6.043645082088258</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983549</v>
+        <v>6.20360238398393</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243925</v>
+        <v>5.675084209244274</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402180066</v>
+        <v>4.554755402180347</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.04473336453325</v>
+        <v>3.044733364533438</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847605</v>
+        <v>1.480938891847696</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030923002</v>
+        <v>0.4430472030923275</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614919102</v>
+        <v>0.09614176614919695</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568952</v>
+        <v>0.001569234485569048</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621199</v>
+        <v>0.01999702087621321</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994121</v>
+        <v>0.1777916946994231</v>
       </c>
       <c r="I10" t="n">
-        <v>0.601364955077357</v>
+        <v>0.601364955077394</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948187</v>
+        <v>1.413789375948274</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618083</v>
+        <v>2.323290243618226</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630996099</v>
+        <v>2.973011630996282</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895666</v>
+        <v>3.134623917895858</v>
       </c>
       <c r="N10" t="n">
-        <v>3.06008956735706</v>
+        <v>3.060089567357248</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303128</v>
+        <v>2.826488005303302</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428401</v>
+        <v>2.41854877942855</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734442</v>
+        <v>1.674477811734545</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750340405</v>
+        <v>0.8991387750340958</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365427124</v>
+        <v>0.3484935365427338</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647108755</v>
+        <v>0.08544181647109281</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247928</v>
+        <v>0.001090746593247995</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33749,13 +33749,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34390,7 +34390,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806949</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,16 +35811,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764787</v>
+        <v>63.76098156951865</v>
       </c>
       <c r="K19" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>267.442013409214</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428931</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
-        <v>157.2399455263364</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.454064246278</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764787</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147795</v>
+        <v>251.6854547147797</v>
       </c>
       <c r="M22" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701742</v>
       </c>
       <c r="N22" t="n">
-        <v>267.4420134092141</v>
+        <v>267.4420134092143</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>191.1302701359325</v>
       </c>
       <c r="P22" t="n">
-        <v>157.2399455263357</v>
+        <v>194.3532919172053</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.454064246278</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088608</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.449794268924649e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>106.3449593764788</v>
       </c>
       <c r="K25" t="n">
         <v>193.7066772858029</v>
@@ -36528,13 +36528,13 @@
         <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428932</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>194.3532919172052</v>
+        <v>157.2399455263341</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.3407178554083</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060943</v>
+        <v>93.00606408060956</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118628</v>
+        <v>242.4680417862063</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353734</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O28" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126536</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054369</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060946</v>
+        <v>81.99879885495149</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118628</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377413</v>
+        <v>367.1850196377415</v>
       </c>
       <c r="M31" t="n">
-        <v>384.053761635373</v>
+        <v>395.0610268610272</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350833</v>
+        <v>392.2845936350835</v>
       </c>
       <c r="O31" t="n">
-        <v>349.780777690183</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>282.3847186126536</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054369</v>
+        <v>125.8218860054371</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37221,22 +37221,22 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J34" t="n">
-        <v>89.60290861276886</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
         <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
         <v>236.9961840848623</v>
@@ -37245,10 +37245,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.7360003882472</v>
+        <v>89.37971366430169</v>
       </c>
       <c r="R34" t="n">
-        <v>8.752567558057677</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>176.9646265220934</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>255.5370193645219</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
         <v>270.7239495511832</v>
@@ -37482,10 +37482,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.35547617082652</v>
+        <v>89.60290861276931</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
         <v>236.9961840848623</v>
@@ -37719,10 +37719,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037194</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
@@ -37953,13 +37953,13 @@
         <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
-        <v>186.363808711553</v>
+        <v>177.6112411534959</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38169,31 +38169,31 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>258.1202303852954</v>
       </c>
       <c r="O46" t="n">
-        <v>225.724764737241</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
